--- a/data/European_public_admin/european_agencies_total.xlsx
+++ b/data/European_public_admin/european_agencies_total.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="Rd09033612fa44098"/>
+    <sheet name="Data" sheetId="1" r:id="R83090dd2c324443f"/>
   </sheets>
 </workbook>
 </file>
@@ -85,7 +85,7 @@
     <t>Unit of measurement</t>
   </si>
   <si>
-    <t>Percent of total</t>
+    <t>Number of persons (headcount)</t>
   </si>
   <si>
     <t>Geographic region</t>
@@ -628,67 +628,67 @@
         <v>52</v>
       </c>
       <c r="B21" s="1">
-        <v>100</v>
+        <v>1325</v>
       </c>
       <c r="C21" s="1">
-        <v>100</v>
+        <v>1287</v>
       </c>
       <c r="D21" s="1">
-        <v>100</v>
+        <v>1288</v>
       </c>
       <c r="E21" s="1">
-        <v>100</v>
+        <v>1289</v>
       </c>
       <c r="F21" s="1">
-        <v>100</v>
+        <v>1274</v>
       </c>
       <c r="G21" s="1">
-        <v>100</v>
+        <v>1288</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>1273</v>
       </c>
       <c r="I21" s="1">
-        <v>100</v>
+        <v>1289</v>
       </c>
       <c r="J21" s="1">
-        <v>100</v>
+        <v>1264</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>1297</v>
       </c>
       <c r="L21" s="1">
-        <v>100</v>
+        <v>1288</v>
       </c>
       <c r="M21" s="1">
-        <v>100</v>
+        <v>1237</v>
       </c>
       <c r="N21" s="1">
-        <v>100</v>
+        <v>927</v>
       </c>
       <c r="O21" s="1">
-        <v>100</v>
+        <v>879</v>
       </c>
       <c r="P21" s="1">
-        <v>100</v>
+        <v>827</v>
       </c>
       <c r="Q21" s="1">
-        <v>100</v>
+        <v>848</v>
       </c>
       <c r="R21" s="1">
-        <v>100</v>
+        <v>858</v>
       </c>
       <c r="S21" s="1">
-        <v>100</v>
+        <v>694</v>
       </c>
       <c r="T21" s="1">
-        <v>100</v>
+        <v>688</v>
       </c>
       <c r="U21" s="1">
-        <v>100</v>
+        <v>588</v>
       </c>
       <c r="V21" s="1">
-        <v>100</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22">
@@ -696,43 +696,43 @@
         <v>53</v>
       </c>
       <c r="B22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="K22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M22" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N22" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>54</v>
@@ -764,40 +764,40 @@
         <v>55</v>
       </c>
       <c r="B23" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I23" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J23" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="L23" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="M23" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>54</v>
@@ -832,67 +832,67 @@
         <v>56</v>
       </c>
       <c r="B24" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G24" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="M24" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="P24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="R24" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="S24" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="T24" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="U24" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="V24" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -1013,22 +1013,22 @@
         <v>54</v>
       </c>
       <c r="Q26" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="R26" s="1">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="S26" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="T26" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="U26" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="V26" s="1">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -1036,67 +1036,67 @@
         <v>59</v>
       </c>
       <c r="B27" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G27" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H27" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I27" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J27" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K27" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L27" s="1">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M27" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N27" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O27" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="P27" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="R27" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="S27" s="1">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="T27" s="1">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="U27" s="1">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="V27" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1104,55 +1104,55 @@
         <v>60</v>
       </c>
       <c r="B28" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H28" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I28" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J28" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="K28" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="L28" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="M28" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="N28" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="O28" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="P28" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="R28" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>54</v>
@@ -1172,37 +1172,37 @@
         <v>61</v>
       </c>
       <c r="B29" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F29" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H29" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="K29" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="L29" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>54</v>
@@ -1246,37 +1246,37 @@
         <v>54</v>
       </c>
       <c r="D30" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F30" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I30" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K30" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="L30" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M30" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="N30" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>54</v>
@@ -1308,64 +1308,64 @@
         <v>63</v>
       </c>
       <c r="B31" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="G31" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H31" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I31" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K31" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="L31" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M31" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N31" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O31" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="P31" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="R31" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="S31" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T31" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="U31" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>54</v>
@@ -1376,40 +1376,40 @@
         <v>64</v>
       </c>
       <c r="B32" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E32" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F32" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G32" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I32" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J32" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K32" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L32" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M32" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>54</v>
@@ -1444,61 +1444,61 @@
         <v>65</v>
       </c>
       <c r="B33" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G33" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H33" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I33" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="K33" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L33" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M33" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N33" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O33" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="P33" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="R33" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="S33" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="T33" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>54</v>
@@ -1512,67 +1512,67 @@
         <v>66</v>
       </c>
       <c r="B34" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F34" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G34" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H34" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I34" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J34" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K34" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L34" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M34" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="N34" s="1">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O34" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="P34" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="1">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="R34" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="S34" s="1">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="T34" s="1">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="U34" s="1">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="V34" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1580,55 +1580,55 @@
         <v>67</v>
       </c>
       <c r="B35" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G35" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H35" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I35" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J35" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K35" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="L35" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M35" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="N35" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O35" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="P35" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="R35" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>54</v>
@@ -1648,40 +1648,40 @@
         <v>68</v>
       </c>
       <c r="B36" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F36" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G36" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H36" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I36" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J36" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K36" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L36" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M36" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>54</v>
@@ -1716,67 +1716,67 @@
         <v>69</v>
       </c>
       <c r="B37" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E37" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F37" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="G37" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H37" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I37" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J37" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="K37" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="L37" s="1">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="M37" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="N37" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O37" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="P37" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="R37" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="S37" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="T37" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="U37" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="V37" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -1784,55 +1784,55 @@
         <v>70</v>
       </c>
       <c r="B38" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="G38" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J38" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="K38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="L38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="P38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="R38" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>54</v>
@@ -1852,67 +1852,67 @@
         <v>71</v>
       </c>
       <c r="B39" s="1">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="M39" s="1">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="N39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="O39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="P39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="R39" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="S39" s="1">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="T39" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="U39" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="V39" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1920,7 +1920,7 @@
         <v>72</v>
       </c>
       <c r="B40" s="1">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>54</v>
@@ -1988,10 +1988,10 @@
         <v>73</v>
       </c>
       <c r="B41" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>54</v>
@@ -2056,67 +2056,67 @@
         <v>74</v>
       </c>
       <c r="B42" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E42" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G42" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H42" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I42" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J42" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="K42" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L42" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M42" s="1">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N42" s="1">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="O42" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="P42" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="R42" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="S42" s="1">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="T42" s="1">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="U42" s="1">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="V42" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -2133,46 +2133,46 @@
         <v>54</v>
       </c>
       <c r="E43" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F43" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G43" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H43" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I43" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J43" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="K43" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="L43" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M43" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N43" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O43" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="P43" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="Q43" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="R43" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>54</v>
@@ -2192,49 +2192,49 @@
         <v>8</v>
       </c>
       <c r="B44" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F44" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G44" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H44" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I44" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="J44" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="K44" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="L44" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="M44" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="N44" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O44" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="P44" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>54</v>
@@ -2260,40 +2260,40 @@
         <v>76</v>
       </c>
       <c r="B45" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H45" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I45" s="1">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="J45" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K45" s="1">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="L45" s="1">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="M45" s="1">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>54</v>
@@ -2328,40 +2328,40 @@
         <v>77</v>
       </c>
       <c r="B46" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C46" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E46" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F46" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G46" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H46" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I46" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J46" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K46" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="L46" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M46" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>54</v>
@@ -2396,40 +2396,40 @@
         <v>78</v>
       </c>
       <c r="B47" s="1">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D47" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F47" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G47" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H47" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I47" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J47" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K47" s="1">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="L47" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="M47" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>54</v>
@@ -2464,67 +2464,67 @@
         <v>79</v>
       </c>
       <c r="B48" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D48" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E48" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G48" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H48" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I48" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J48" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="K48" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="L48" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="M48" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="N48" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O48" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="P48" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="Q48" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="R48" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="S48" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="T48" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="U48" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="V48" s="1">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -2532,67 +2532,67 @@
         <v>80</v>
       </c>
       <c r="B49" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C49" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F49" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G49" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H49" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I49" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J49" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="K49" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="L49" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="M49" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N49" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="O49" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="P49" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="Q49" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="R49" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="S49" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="T49" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="U49" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="V49" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -2600,67 +2600,67 @@
         <v>81</v>
       </c>
       <c r="B50" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E50" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F50" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="G50" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H50" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="K50" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="L50" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="P50" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="Q50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="R50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="S50" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="T50" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="U50" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="V50" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -2668,64 +2668,64 @@
         <v>82</v>
       </c>
       <c r="B51" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C51" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D51" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E51" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G51" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H51" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I51" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J51" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="K51" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="L51" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M51" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N51" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="O51" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="P51" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="R51" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="S51" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="T51" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="U51" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="V51" s="1" t="s">
         <v>54</v>
@@ -2736,40 +2736,40 @@
         <v>83</v>
       </c>
       <c r="B52" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E52" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F52" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G52" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H52" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I52" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J52" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K52" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="L52" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="M52" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>54</v>
@@ -2804,40 +2804,40 @@
         <v>84</v>
       </c>
       <c r="B53" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C53" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E53" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G53" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H53" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I53" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J53" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K53" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L53" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M53" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>54</v>
@@ -2872,61 +2872,61 @@
         <v>85</v>
       </c>
       <c r="B54" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E54" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G54" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H54" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I54" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="J54" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K54" s="1">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="L54" s="1">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="M54" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="N54" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O54" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="P54" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="Q54" s="1">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="R54" s="1">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="S54" s="1">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="T54" s="1">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>54</v>
@@ -2940,40 +2940,40 @@
         <v>86</v>
       </c>
       <c r="B55" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E55" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F55" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G55" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H55" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I55" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J55" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K55" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="L55" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="M55" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>54</v>
@@ -3008,67 +3008,67 @@
         <v>87</v>
       </c>
       <c r="B56" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E56" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F56" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="G56" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H56" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="I56" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J56" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K56" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="L56" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M56" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N56" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O56" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="P56" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="R56" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="S56" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="T56" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="U56" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="V56" s="1">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -3076,67 +3076,67 @@
         <v>88</v>
       </c>
       <c r="B57" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C57" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E57" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="G57" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H57" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I57" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J57" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K57" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="L57" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M57" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N57" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O57" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="P57" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="Q57" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R57" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="S57" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="T57" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="U57" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="V57" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -3212,28 +3212,28 @@
         <v>90</v>
       </c>
       <c r="B59" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D59" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E59" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F59" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G59" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H59" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I59" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>54</v>
@@ -3280,40 +3280,40 @@
         <v>91</v>
       </c>
       <c r="B60" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D60" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E60" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F60" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="G60" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H60" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I60" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J60" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K60" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="L60" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M60" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>54</v>
@@ -3372,43 +3372,43 @@
         <v>54</v>
       </c>
       <c r="J61" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="K61" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="L61" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M61" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="N61" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O61" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="P61" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="Q61" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="R61" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="S61" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="T61" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="U61" s="1">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="V61" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -3416,31 +3416,31 @@
         <v>93</v>
       </c>
       <c r="B62" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F62" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G62" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="H62" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="I62" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="J62" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>54</v>
@@ -3484,40 +3484,40 @@
         <v>94</v>
       </c>
       <c r="B63" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D63" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E63" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F63" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G63" s="1">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H63" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I63" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="J63" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="K63" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="L63" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="M63" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>54</v>
@@ -3552,67 +3552,67 @@
         <v>95</v>
       </c>
       <c r="B64" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="E64" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="F64" s="1">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G64" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H64" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I64" s="1">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J64" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K64" s="1">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="L64" s="1">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="M64" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N64" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="O64" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="P64" s="1">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="Q64" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R64" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="S64" s="1">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="T64" s="1">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="U64" s="1">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="V64" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -3620,16 +3620,16 @@
         <v>96</v>
       </c>
       <c r="B65" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D65" s="1">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>54</v>
@@ -3688,13 +3688,13 @@
         <v>97</v>
       </c>
       <c r="B66" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C66" s="1">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D66" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>54</v>

--- a/data/European_public_admin/european_agencies_total.xlsx
+++ b/data/European_public_admin/european_agencies_total.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="R83090dd2c324443f"/>
+    <sheet name="Data" sheetId="1" r:id="Rf7a79704b2934f2d"/>
   </sheets>
 </workbook>
 </file>
@@ -25,7 +25,7 @@
     <t>Extracted on</t>
   </si>
   <si>
-    <t>22.01.2024</t>
+    <t>25.01.2024</t>
   </si>
   <si>
     <t>Source type</t>
